--- a/medicine/Psychotrope/Fronsac_(AOC)/Fronsac_(AOC).xlsx
+++ b/medicine/Psychotrope/Fronsac_(AOC)/Fronsac_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le fronsac[1] est un vin rouge français d'appellation d'origine contrôlée produit autour de Fronsac.
+Le fronsac est un vin rouge français d'appellation d'origine contrôlée produit autour de Fronsac.
 Cette appellation est réservée aux « vins tranquilles rouges ». Avec sa voisine le canon-fronsac elle couvre le Fronsadais, cette dernière étant l'une des parties du Libournais, appartenant au vignoble de Bordeaux.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appellation est reconnue par un décret de 1937, actualisé en décembre 2011[3].
-En 2009, le rendement passe de 47 hectolitres à 53 hectolitres par hectare [5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation est reconnue par un décret de 1937, actualisé en décembre 2011.
+En 2009, le rendement passe de 47 hectolitres à 53 hectolitres par hectare .
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les appellations fronsac et canon-fronsac, produisant uniquement du vin rouge, s’étendent sur des sols à tendance argilo-calcaires. Le calcaire à astéries prédomine sur le tertre et les plateaux. La molasse du Fronsadais marque les côtes et les combes. Cette typicité des terroirs est accentuée par la diversité de reliefs très accidentés. Les deux rivières, l’Isle et la Dordogne, protègent le vignoble des gelées printanières. La présence de nombreux arbousiers et chênes verts témoigne de ce climat privilégié.
-L’AOC fronsac est réparti sur les communes de Fronsac, Saint-Aignan, La Rivière, Saint-Germain-de-la-Rivière, Saillans, Saint-Michel-de-Fronsac, et Galgon[3]. 
+L’AOC fronsac est réparti sur les communes de Fronsac, Saint-Aignan, La Rivière, Saint-Germain-de-la-Rivière, Saillans, Saint-Michel-de-Fronsac, et Galgon. 
 Les deux AOC fronsac et canon-fronsac comptent 170 propriétaires et récoltants. La superficie moyenne des châteaux est de 7 hectares et la production atteint 600 000 caisses par an. Dans les deux appellations, il n’existe pas de classement de château.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Le vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les couleurs : la robe est souvent d’un rouge rubis soutenu. L’apparition de nuances topazées, parfois assez rapide, est la marque des grands terroirs calcaires.
 Les parfums : alliant finesse et vivacité, les arômes dominants de fruits rouges s’enrichissent souvent de touches d’épices, parfois même de truffe.
